--- a/biology/Zoologie/Acrida_turrita/Acrida_turrita.xlsx
+++ b/biology/Zoologie/Acrida_turrita/Acrida_turrita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrida turrita est une espèce de criquets phytophages présente au Maghreb et dans plusieurs régions autour de la Méditerranée.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom vernaculaire de truxale corse est parfois employé pour désigner l'espèce[1].
-Synonyme : Gryllus turrita Linnaeus, 1758 - protonyme[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom vernaculaire de truxale corse est parfois employé pour désigner l'espèce.
+Synonyme : Gryllus turrita Linnaeus, 1758 - protonyme.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un criquet élancé de 30 à 60 mm de long. De couleur variable, on le reconnait à sa tête allongée ornée de deux yeux situés au sommet. Ses antennes, ensiformes, sont larges à la base et se terminent en pointe.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La population n’est jamais abondante. L’espèce fréquente la végétation herbacée et les cultures des milieux semi-arides de plaine et moyenne altitude (1 200 m).
 </t>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente du Maroc à la Tunisie. En Europe, elle est signalée en Sicile, en Crète, en Albanie, en Ukraine, en Moldavie[2], mais également en Corse[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente du Maroc à la Tunisie. En Europe, elle est signalée en Sicile, en Crète, en Albanie, en Ukraine, en Moldavie, mais également en Corse.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Autres espèces du genre Acrida en particulier Acrida ungarica. La distinction entre les deux espèces se fait au niveau du sillon typique : celui-ci est positionné à l’arrière du milieu du pronotum chez Acrida turrita et à l’avant chez l'Acrida ungarica[1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Autres espèces du genre Acrida en particulier Acrida ungarica. La distinction entre les deux espèces se fait au niveau du sillon typique : celui-ci est positionné à l’arrière du milieu du pronotum chez Acrida turrita et à l’avant chez l'Acrida ungarica.</t>
         </is>
       </c>
     </row>
